--- a/downloadPdfPath/厦门理工学院活动登记卡.xlsx
+++ b/downloadPdfPath/厦门理工学院活动登记卡.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21096" windowHeight="9120" tabRatio="441"/>
+    <workbookView windowWidth="20880" windowHeight="8735" tabRatio="441"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,27 @@
     </r>
   </si>
   <si>
-    <t>{phone}</t>
+    <r>
+      <t>{applyUserame}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="204"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="204"/>
+      </rPr>
+      <t>{applyUserPhone}</t>
+    </r>
   </si>
   <si>
     <r>
@@ -68,7 +88,33 @@
     </r>
   </si>
   <si>
-    <t>{guidePhone}</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="204"/>
+      </rPr>
+      <t>{reviewUsername}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="204"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="204"/>
+      </rPr>
+      <t>{reviewPhone}</t>
+    </r>
   </si>
   <si>
     <r>
@@ -81,7 +127,7 @@
     </r>
   </si>
   <si>
-    <t>{object}</t>
+    <t>{actObjectName}</t>
   </si>
   <si>
     <r>
@@ -94,7 +140,7 @@
     </r>
   </si>
   <si>
-    <t>{num}</t>
+    <t>{actNumberName}</t>
   </si>
   <si>
     <r>
@@ -107,7 +153,7 @@
     </r>
   </si>
   <si>
-    <t>{type}</t>
+    <t>{assoType}</t>
   </si>
   <si>
     <r>
@@ -120,7 +166,7 @@
     </r>
   </si>
   <si>
-    <t>{time}</t>
+    <t>{actStartDate}</t>
   </si>
   <si>
     <r>
@@ -150,17 +196,11 @@
   </si>
   <si>
     <t>活动简介及内容：
-{actText}</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>活动流程：</t>
-    </r>
+{actMessage}</t>
+  </si>
+  <si>
+    <t>活动流程：
+{actProcess}</t>
   </si>
   <si>
     <r>
@@ -186,7 +226,7 @@
         <charset val="204"/>
       </rPr>
       <t xml:space="preserve">）注意事项
-{actWarning}
+{actWarn}
 </t>
     </r>
   </si>
@@ -213,15 +253,21 @@
         <rFont val="宋体"/>
         <charset val="204"/>
       </rPr>
-      <t>）经费（具体项目）：</t>
+      <t>）经费（具体项目）：
+{actName}:{actFund}元</t>
     </r>
   </si>
   <si>
     <t>学生会社团部意见及建议：
+          同意                        盖章
+                           {actApplyDate}
                               年   月   日</t>
   </si>
   <si>
     <t>校团委意见及建议：
+{actReply}
+                                        盖章
+                            {actReviewerDate}
                                   年   月   日</t>
   </si>
 </sst>
@@ -230,12 +276,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -266,19 +312,64 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -286,9 +377,62 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -302,70 +446,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -377,43 +462,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="12"/>
@@ -430,187 +482,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -722,6 +774,80 @@
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -745,233 +871,159 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -993,6 +1045,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1002,6 +1057,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1019,6 +1077,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1374,8 +1441,8 @@
   <sheetPr/>
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelCol="4"/>
@@ -1406,108 +1473,108 @@
       <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="7"/>
+      <c r="E2" s="8"/>
     </row>
     <row r="3" ht="38.5" customHeight="1" spans="1:4">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="11" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" ht="39.75" customHeight="1" spans="1:4">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" ht="38.75" customHeight="1" spans="1:4">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="10" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" ht="46.5" customHeight="1" spans="1:4">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="12"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="14"/>
     </row>
     <row r="7" ht="47" customHeight="1" spans="1:4">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="12"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="14"/>
     </row>
     <row r="8" ht="84.75" customHeight="1" spans="1:4">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="15"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="17"/>
     </row>
     <row r="9" ht="103.5" customHeight="1" spans="1:4">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="15"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="20"/>
     </row>
     <row r="10" ht="108" customHeight="1" spans="1:4">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="16" t="s">
+      <c r="B10" s="22"/>
+      <c r="C10" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="17"/>
+      <c r="D10" s="22"/>
     </row>
     <row r="11" ht="106.5" customHeight="1" spans="1:4">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="16" t="s">
+      <c r="B11" s="22"/>
+      <c r="C11" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="17"/>
+      <c r="D11" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="9">

--- a/downloadPdfPath/厦门理工学院活动登记卡.xlsx
+++ b/downloadPdfPath/厦门理工学院活动登记卡.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20880" windowHeight="8735" tabRatio="441"/>
+    <workbookView windowWidth="28248" windowHeight="12660" tabRatio="441"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -43,6 +43,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="204"/>
+      </rPr>
       <t>{applyUserame}</t>
     </r>
     <r>
@@ -276,10 +282,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -311,6 +317,81 @@
       <charset val="204"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -320,6 +401,37 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -334,22 +446,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -364,101 +462,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -482,187 +488,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -780,10 +786,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -792,8 +796,17 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -809,6 +822,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -830,9 +858,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -851,175 +881,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1442,7 +1448,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C10" sqref="C10:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelCol="4"/>
